--- a/Documentation/ALU Codes.xlsx
+++ b/Documentation/ALU Codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UOM Projects\Sentinels\Processor\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UOM Projects\Sentinels\VitaV1.0\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALU Codes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>ALU CODE</t>
   </si>
@@ -224,6 +224,21 @@
   </si>
   <si>
     <t>0x16</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>lda &lt;op1&gt;</t>
+  </si>
+  <si>
+    <t>ldb &lt;op1&gt;</t>
+  </si>
+  <si>
+    <t>sta &lt;op1&gt;</t>
+  </si>
+  <si>
+    <t>op1 = address for saving</t>
   </si>
 </sst>
 </file>
@@ -275,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,10 +302,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,14 +609,14 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1012,30 +1030,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D16"/>
+  <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1067,8 +1093,11 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1079,7 +1108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1101,7 +1130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1121,6 +1150,12 @@
       </c>
       <c r="D16" t="s">
         <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/ALU Codes.xlsx
+++ b/Documentation/ALU Codes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>ALU CODE</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>op1 = address for saving</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>0xff</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>Halt the processor</t>
   </si>
 </sst>
 </file>
@@ -305,10 +317,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,14 +621,14 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1030,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B3:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1066,7 @@
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1156,6 +1168,17 @@
       </c>
       <c r="G16" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1192,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1288,9 @@
         <v>51</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>62</v>
       </c>

--- a/Documentation/ALU Codes.xlsx
+++ b/Documentation/ALU Codes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ALU Codes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>ALU CODE</t>
   </si>
@@ -251,6 +251,45 @@
   </si>
   <si>
     <t>Halt the processor</t>
+  </si>
+  <si>
+    <t>move content from A to B</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>mv &lt;op1&gt; &lt;op2&gt;</t>
+  </si>
+  <si>
+    <t>op1 = source register (in 4 bit value), op2 = destination register (in 4 bit value)</t>
+  </si>
+  <si>
+    <t>memlda</t>
+  </si>
+  <si>
+    <t>0x35</t>
+  </si>
+  <si>
+    <t>load from memory to A</t>
+  </si>
+  <si>
+    <t>memlda &lt;op1&gt;</t>
+  </si>
+  <si>
+    <t>FTREG</t>
   </si>
 </sst>
 </file>
@@ -606,7 +645,7 @@
   <dimension ref="B4:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,14 +1083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
@@ -1170,7 +1209,38 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
@@ -1191,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,17 +1382,31 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
